--- a/4. Control y Seguimiento/1.4.4 Control de Alcance.xlsx
+++ b/4. Control y Seguimiento/1.4.4 Control de Alcance.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intec\OneDrive\Escritorio\intecTroquian\4. Control y Seguimiento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcelo Twice\Desktop\Plataforma Web Intecil\4. Control y Seguimiento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9910B6F8-0F89-45EF-B017-B9EF3BFF957B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469DF529-6514-4F34-B82B-55357207EF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$I$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$H$49</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,105 +28,123 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
-  <si>
-    <t>Proyecto</t>
-  </si>
-  <si>
-    <t>Plataforma Web Intecil</t>
-  </si>
-  <si>
-    <t>[Fecha]</t>
-  </si>
-  <si>
-    <t>Responsable</t>
-  </si>
-  <si>
-    <t>[Nombre del responsable]</t>
-  </si>
-  <si>
-    <t>Versión</t>
-  </si>
-  <si>
-    <t>[Número de versión del informe]</t>
-  </si>
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>Descripción</t>
-  </si>
-  <si>
-    <t>Estado</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>Control de Alcance</t>
   </si>
   <si>
-    <t>1. Actividades en el Alcance Original</t>
-  </si>
-  <si>
-    <t>Entregable</t>
-  </si>
-  <si>
     <t>Comentarios</t>
   </si>
   <si>
-    <t>Plataforma Web</t>
-  </si>
-  <si>
-    <t>Implementación de la plataforma completa</t>
-  </si>
-  <si>
-    <t>En progreso</t>
-  </si>
-  <si>
-    <t>Cumple con la funcionalidad especificada</t>
-  </si>
-  <si>
     <t>2. Cambios Solicitados en el Alcance</t>
   </si>
   <si>
-    <t>ID de Cambio</t>
-  </si>
-  <si>
-    <t>Descripción del Cambio</t>
-  </si>
-  <si>
-    <t>Fecha de Solicitud</t>
-  </si>
-  <si>
-    <t>CAM-001</t>
-  </si>
-  <si>
-    <t>Añadir módulo de reportes adicionales</t>
-  </si>
-  <si>
-    <t>Aprobado</t>
-  </si>
-  <si>
-    <t>Incorporación en la siguiente fase</t>
-  </si>
-  <si>
-    <t>3. Validación de Alcance</t>
-  </si>
-  <si>
-    <t>Actividad de Validación</t>
-  </si>
-  <si>
-    <t>Validado por</t>
-  </si>
-  <si>
-    <t>Resultados</t>
-  </si>
-  <si>
-    <t>Revisión del alcance de la fase 1</t>
-  </si>
-  <si>
-    <t>Gerente de Proyecto</t>
-  </si>
-  <si>
-    <t>Cumple con especificaciones iniciales</t>
+    <t>1. Objetivo del control de alcance</t>
+  </si>
+  <si>
+    <t>Verificar el cumplimiento del alcance definido en el plan del proyecto y documentar las desviaciones, cambios o riesgos asociados</t>
+  </si>
+  <si>
+    <t>Elemento del Alcance</t>
+  </si>
+  <si>
+    <t>Estado (Cumplido/Parcial/No Cumplido)</t>
+  </si>
+  <si>
+    <t>Diseño e Implementación de la Plataforma Web</t>
+  </si>
+  <si>
+    <t>Módulo de Login</t>
+  </si>
+  <si>
+    <t>Módulo CRUD</t>
+  </si>
+  <si>
+    <t>Módulo de Gestión de Usuarios</t>
+  </si>
+  <si>
+    <t>Módulo de Métricas</t>
+  </si>
+  <si>
+    <t>Módulo de Búsqueda</t>
+  </si>
+  <si>
+    <t>Optimización de Almacenamiento</t>
+  </si>
+  <si>
+    <t>Integración con la Intranet</t>
+  </si>
+  <si>
+    <t>Capacitación a los Usuarios</t>
+  </si>
+  <si>
+    <t>Mantenimiento de la Plataforma</t>
+  </si>
+  <si>
+    <t>Cumplido</t>
+  </si>
+  <si>
+    <t>Elemento</t>
+  </si>
+  <si>
+    <t>Gestión de certificados</t>
+  </si>
+  <si>
+    <t>Gestión de números de informe</t>
+  </si>
+  <si>
+    <t>Gestión de números de registro</t>
+  </si>
+  <si>
+    <t>Integración con APIs externas</t>
+  </si>
+  <si>
+    <t>Desarrollo de aplicación móvil</t>
+  </si>
+  <si>
+    <t>Migración de datos históricos</t>
+  </si>
+  <si>
+    <t>Integración con otras aplicaciones de Synology</t>
+  </si>
+  <si>
+    <t>3. Elementos Fuera del Alcance</t>
+  </si>
+  <si>
+    <t>Confirmado como excluido</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>Se cumple con la fase de diseño, planificacion y desarrollo de los modulos que se estipuló</t>
+  </si>
+  <si>
+    <t>El login de la pagina fue desarrollado exitosamente</t>
+  </si>
+  <si>
+    <t>El modulo de CRUD (LoteVisa, RevisionLote, ImpresionLote) se cumplio correctamente</t>
+  </si>
+  <si>
+    <t>El desarrollo del modulo para gestionar, agregar, eliminar usuarios y roles fue implementado dentro de la plataforma correctamente</t>
+  </si>
+  <si>
+    <t>El modulo de metricas fue desarrollado exitosamente</t>
+  </si>
+  <si>
+    <t>El modulo de busqueda de un lote fue desarrollado exitosamente</t>
+  </si>
+  <si>
+    <t>Fue posible bajar la carga de correos enviados y asi poder disminuir y optimizar el disco del host</t>
+  </si>
+  <si>
+    <t>La plataforma se integro correctamente con el servidor SYNOLOGY</t>
+  </si>
+  <si>
+    <t>Se realizaron reuniones para explicar y capacitar a los usuarios</t>
+  </si>
+  <si>
+    <t>Actualmente se esta manteninendo la plataforma de manera constante</t>
   </si>
 </sst>
 </file>
@@ -241,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -255,35 +273,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -625,253 +652,325 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:H27"/>
+  <dimension ref="B2:G1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="27.21875" customWidth="1"/>
     <col min="3" max="3" width="24.109375" customWidth="1"/>
-    <col min="4" max="4" width="27.109375" customWidth="1"/>
-    <col min="5" max="5" width="28.44140625" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="56.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="10"/>
       <c r="C2" s="13" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="12"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-    </row>
-    <row r="5" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="2:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="7" spans="2:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B10" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>17</v>
-      </c>
+    </row>
+    <row r="7" spans="2:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="14" t="s">
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B15" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B16" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B18" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B19" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B22" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B25" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="15" t="s">
+      <c r="C30" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C31" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="C32" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B16" s="16" t="s">
+      <c r="C33" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C34" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="16" t="s">
+      <c r="C35" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="C36" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B37" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="15" t="s">
+      <c r="C37" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="15" t="s">
+    </row>
+    <row r="1048576" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1048576" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B21" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B27" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>6</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:H4"/>
+    <mergeCell ref="C2:G4"/>
+    <mergeCell ref="B9:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="43" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
